--- a/reconstruction-tools-assessment/supplementary material/S9_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S9_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC0378-8243-45CB-9AB5-0DD699C6C8FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="12072" yWindow="2010" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S9 Table" sheetId="1" r:id="rId1"/>
@@ -84,7 +85,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">S9 Table. Metabolic processes associated to the 121 genes of iBP1870 which were recovered in all the draft networks of </t>
+      <t xml:space="preserve">S9 Table. Metabolic processes associated to the 131 genes of iBP1870 which were recovered in all the draft networks of </t>
     </r>
     <r>
       <rPr>
@@ -102,7 +103,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,11 +189,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -199,9 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -535,190 +534,190 @@
     </row>
     <row r="2" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>69</v>
-      </c>
-      <c r="C4" s="5">
-        <v>29.11392405063291</v>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4">
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>54</v>
-      </c>
-      <c r="C5" s="5">
-        <v>22.784810126582279</v>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4">
+        <v>22.692307692307693</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10.126582278481013</v>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>18</v>
       </c>
-      <c r="C7" s="5">
-        <v>7.5949367088607591</v>
+      <c r="C7" s="4">
+        <v>6.9230769230769234</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.5384615384615383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
-        <v>5.9071729957805905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="4">
+        <v>5.384615384615385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C12" s="4">
+        <v>3.0769230769230771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
-        <v>5.4852320675105481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5.0632911392405067</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3.3755274261603376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.9535864978902953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.109704641350211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="5">
-        <v>1.6877637130801688</v>
+      <c r="C14" s="4">
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="5">
-        <v>1.6877637130801688</v>
+      <c r="C15" s="4">
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.1538461538461537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.84388185654008441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="C17" s="4">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.4219409282700422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="C18" s="4">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C18" s="5">
-        <v>0.4219409282700422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.4219409282700422</v>
+      <c r="C19" s="4">
+        <v>0.38461538461538464</v>
       </c>
     </row>
   </sheetData>
